--- a/data_dictionary.ver.0.1.xlsx
+++ b/data_dictionary.ver.0.1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komai/20.kaggle/BNP_Paribas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92994E35-3AD3-504E-9953-194904871950}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F98AE3-5AA2-2B44-8219-E57FD426538E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-260" yWindow="1300" windowWidth="20080" windowHeight="14660" xr2:uid="{9B28D46B-80F1-A44B-8D59-E1D685F85FD1}"/>
+    <workbookView xWindow="200" yWindow="1000" windowWidth="20080" windowHeight="14660" xr2:uid="{9B28D46B-80F1-A44B-8D59-E1D685F85FD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$E$135</definedName>
@@ -842,15 +843,16 @@
   <dimension ref="B2:E135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <pane ySplit="2" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>135</v>
       </c>
@@ -861,7 +863,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -873,7 +875,7 @@
         <v>'ID',</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -885,7 +887,7 @@
         <v>'target',</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -897,7 +899,7 @@
         <v>'v1',</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
@@ -909,7 +911,7 @@
         <v>'v2',</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>4</v>
       </c>
@@ -921,7 +923,7 @@
         <v>'v3',</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -933,7 +935,7 @@
         <v>'v4',</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
@@ -945,7 +947,7 @@
         <v>'v5',</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -957,7 +959,7 @@
         <v>'v6',</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -969,7 +971,7 @@
         <v>'v7',</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -981,7 +983,7 @@
         <v>'v8',</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -993,7 +995,7 @@
         <v>'v9',</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -1005,7 +1007,7 @@
         <v>'v10',</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -1017,7 +1019,7 @@
         <v>'v11',</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -1029,7 +1031,7 @@
         <v>'v12',</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -1041,7 +1043,7 @@
         <v>'v13',</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -1053,7 +1055,7 @@
         <v>'v14',</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -1065,7 +1067,7 @@
         <v>'v15',</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -1077,7 +1079,7 @@
         <v>'v16',</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -1089,7 +1091,7 @@
         <v>'v17',</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>19</v>
       </c>
@@ -1101,7 +1103,7 @@
         <v>'v18',</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>20</v>
       </c>
@@ -1113,7 +1115,7 @@
         <v>'v19',</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>21</v>
       </c>
@@ -1125,7 +1127,7 @@
         <v>'v20',</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>22</v>
       </c>
@@ -1137,7 +1139,7 @@
         <v>'v21',</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>23</v>
       </c>
@@ -1149,7 +1151,7 @@
         <v>'v22',</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>24</v>
       </c>
@@ -1161,7 +1163,7 @@
         <v>'v23',</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>25</v>
       </c>
@@ -1173,7 +1175,7 @@
         <v>'v24',</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>26</v>
       </c>
@@ -1185,7 +1187,7 @@
         <v>'v25',</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -1197,7 +1199,7 @@
         <v>'v26',</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -1209,7 +1211,7 @@
         <v>'v27',</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>29</v>
       </c>
@@ -1221,7 +1223,7 @@
         <v>'v28',</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>30</v>
       </c>
@@ -1233,7 +1235,7 @@
         <v>'v29',</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>31</v>
       </c>
@@ -1245,7 +1247,7 @@
         <v>'v30',</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>32</v>
       </c>
@@ -1257,7 +1259,7 @@
         <v>'v31',</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>33</v>
       </c>
@@ -1269,7 +1271,7 @@
         <v>'v32',</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>34</v>
       </c>
@@ -1281,7 +1283,7 @@
         <v>'v33',</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>35</v>
       </c>
@@ -1293,7 +1295,7 @@
         <v>'v34',</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>36</v>
       </c>
@@ -1305,7 +1307,7 @@
         <v>'v35',</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>37</v>
       </c>
@@ -1317,7 +1319,7 @@
         <v>'v36',</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>38</v>
       </c>
@@ -1329,7 +1331,7 @@
         <v>'v37',</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>39</v>
       </c>
@@ -1341,7 +1343,7 @@
         <v>'v38',</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>40</v>
       </c>
@@ -1353,7 +1355,7 @@
         <v>'v39',</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>41</v>
       </c>
@@ -1365,7 +1367,7 @@
         <v>'v40',</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>42</v>
       </c>
@@ -1377,7 +1379,7 @@
         <v>'v41',</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>43</v>
       </c>
@@ -1389,7 +1391,7 @@
         <v>'v42',</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>44</v>
       </c>
@@ -1401,7 +1403,7 @@
         <v>'v43',</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>45</v>
       </c>
@@ -1413,7 +1415,7 @@
         <v>'v44',</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>46</v>
       </c>
@@ -1425,7 +1427,7 @@
         <v>'v45',</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>47</v>
       </c>
@@ -1437,7 +1439,7 @@
         <v>'v46',</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>48</v>
       </c>
@@ -1449,7 +1451,7 @@
         <v>'v47',</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>49</v>
       </c>
@@ -1461,7 +1463,7 @@
         <v>'v48',</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>50</v>
       </c>
@@ -1473,7 +1475,7 @@
         <v>'v49',</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>51</v>
       </c>
@@ -1485,7 +1487,7 @@
         <v>'v50',</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>52</v>
       </c>
@@ -1497,7 +1499,7 @@
         <v>'v51',</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>53</v>
       </c>
@@ -1509,7 +1511,7 @@
         <v>'v52',</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>54</v>
       </c>
@@ -1521,7 +1523,7 @@
         <v>'v53',</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>55</v>
       </c>
@@ -1533,7 +1535,7 @@
         <v>'v54',</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>56</v>
       </c>
@@ -1545,7 +1547,7 @@
         <v>'v55',</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>57</v>
       </c>
@@ -1557,7 +1559,7 @@
         <v>'v56',</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>58</v>
       </c>
@@ -1569,7 +1571,7 @@
         <v>'v57',</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>59</v>
       </c>
@@ -1581,7 +1583,7 @@
         <v>'v58',</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>60</v>
       </c>
@@ -1593,7 +1595,7 @@
         <v>'v59',</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>61</v>
       </c>
@@ -1605,7 +1607,7 @@
         <v>'v60',</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>62</v>
       </c>
@@ -1617,7 +1619,7 @@
         <v>'v61',</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>63</v>
       </c>
@@ -1629,7 +1631,7 @@
         <v>'v62',</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>64</v>
       </c>
@@ -1641,7 +1643,7 @@
         <v>'v63',</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>65</v>
       </c>
@@ -1653,7 +1655,7 @@
         <v>'v64',</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>66</v>
       </c>
@@ -1665,7 +1667,7 @@
         <v>'v65',</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>67</v>
       </c>
@@ -1677,7 +1679,7 @@
         <v>'v66',</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>68</v>
       </c>
@@ -1689,7 +1691,7 @@
         <v>'v67',</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>69</v>
       </c>
@@ -1701,7 +1703,7 @@
         <v>'v68',</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>70</v>
       </c>
@@ -1713,7 +1715,7 @@
         <v>'v69',</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>71</v>
       </c>
@@ -1725,7 +1727,7 @@
         <v>'v70',</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>72</v>
       </c>
@@ -1737,7 +1739,7 @@
         <v>'v71',</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>73</v>
       </c>
@@ -1749,7 +1751,7 @@
         <v>'v72',</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>74</v>
       </c>
@@ -1761,7 +1763,7 @@
         <v>'v73',</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>75</v>
       </c>
@@ -1773,7 +1775,7 @@
         <v>'v74',</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>76</v>
       </c>
@@ -1785,7 +1787,7 @@
         <v>'v75',</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>77</v>
       </c>
@@ -1797,7 +1799,7 @@
         <v>'v76',</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>78</v>
       </c>
@@ -1809,7 +1811,7 @@
         <v>'v77',</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>79</v>
       </c>
@@ -1821,7 +1823,7 @@
         <v>'v78',</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>80</v>
       </c>
@@ -1833,7 +1835,7 @@
         <v>'v79',</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>81</v>
       </c>
@@ -1845,7 +1847,7 @@
         <v>'v80',</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
         <v>82</v>
       </c>
@@ -1857,7 +1859,7 @@
         <v>'v81',</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>83</v>
       </c>
@@ -1869,7 +1871,7 @@
         <v>'v82',</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>84</v>
       </c>
@@ -1881,7 +1883,7 @@
         <v>'v83',</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>85</v>
       </c>
@@ -1893,7 +1895,7 @@
         <v>'v84',</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>86</v>
       </c>
@@ -1905,7 +1907,7 @@
         <v>'v85',</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>87</v>
       </c>
@@ -1917,7 +1919,7 @@
         <v>'v86',</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
         <v>88</v>
       </c>
@@ -1929,7 +1931,7 @@
         <v>'v87',</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>89</v>
       </c>
@@ -1941,7 +1943,7 @@
         <v>'v88',</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>90</v>
       </c>
@@ -1953,7 +1955,7 @@
         <v>'v89',</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>91</v>
       </c>
@@ -1965,7 +1967,7 @@
         <v>'v90',</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>92</v>
       </c>
@@ -1977,7 +1979,7 @@
         <v>'v91',</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>93</v>
       </c>
@@ -1989,7 +1991,7 @@
         <v>'v92',</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>94</v>
       </c>
@@ -2001,7 +2003,7 @@
         <v>'v93',</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>95</v>
       </c>
@@ -2013,7 +2015,7 @@
         <v>'v94',</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
         <v>96</v>
       </c>
@@ -2025,7 +2027,7 @@
         <v>'v95',</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>97</v>
       </c>
@@ -2037,7 +2039,7 @@
         <v>'v96',</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>98</v>
       </c>
@@ -2049,7 +2051,7 @@
         <v>'v97',</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>99</v>
       </c>
@@ -2061,7 +2063,7 @@
         <v>'v98',</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>100</v>
       </c>
@@ -2073,7 +2075,7 @@
         <v>'v99',</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
         <v>101</v>
       </c>
@@ -2085,7 +2087,7 @@
         <v>'v100',</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>102</v>
       </c>
@@ -2097,7 +2099,7 @@
         <v>'v101',</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>103</v>
       </c>
@@ -2109,7 +2111,7 @@
         <v>'v102',</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>104</v>
       </c>
@@ -2121,7 +2123,7 @@
         <v>'v103',</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>105</v>
       </c>
@@ -2133,7 +2135,7 @@
         <v>'v104',</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>106</v>
       </c>
@@ -2145,7 +2147,7 @@
         <v>'v105',</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>107</v>
       </c>
@@ -2157,7 +2159,7 @@
         <v>'v106',</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>108</v>
       </c>
@@ -2169,7 +2171,7 @@
         <v>'v107',</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
         <v>109</v>
       </c>
@@ -2181,7 +2183,7 @@
         <v>'v108',</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
         <v>110</v>
       </c>
@@ -2193,7 +2195,7 @@
         <v>'v109',</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
         <v>111</v>
       </c>
@@ -2205,7 +2207,7 @@
         <v>'v110',</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
         <v>112</v>
       </c>
@@ -2217,7 +2219,7 @@
         <v>'v111',</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
         <v>113</v>
       </c>
@@ -2229,7 +2231,7 @@
         <v>'v112',</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>114</v>
       </c>
@@ -2241,7 +2243,7 @@
         <v>'v113',</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>115</v>
       </c>
@@ -2253,7 +2255,7 @@
         <v>'v114',</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
         <v>116</v>
       </c>
@@ -2265,7 +2267,7 @@
         <v>'v115',</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>117</v>
       </c>
@@ -2277,7 +2279,7 @@
         <v>'v116',</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>118</v>
       </c>
@@ -2289,7 +2291,7 @@
         <v>'v117',</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>119</v>
       </c>
@@ -2301,7 +2303,7 @@
         <v>'v118',</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>120</v>
       </c>
@@ -2313,7 +2315,7 @@
         <v>'v119',</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>121</v>
       </c>
@@ -2325,7 +2327,7 @@
         <v>'v120',</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>122</v>
       </c>
@@ -2337,7 +2339,7 @@
         <v>'v121',</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>123</v>
       </c>
@@ -2349,7 +2351,7 @@
         <v>'v122',</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>124</v>
       </c>
@@ -2361,7 +2363,7 @@
         <v>'v123',</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
         <v>125</v>
       </c>
@@ -2373,7 +2375,7 @@
         <v>'v124',</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>126</v>
       </c>
@@ -2385,7 +2387,7 @@
         <v>'v125',</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>127</v>
       </c>
@@ -2397,7 +2399,7 @@
         <v>'v126',</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>128</v>
       </c>
@@ -2409,7 +2411,7 @@
         <v>'v127',</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>129</v>
       </c>
@@ -2421,7 +2423,7 @@
         <v>'v128',</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
         <v>130</v>
       </c>
@@ -2433,7 +2435,7 @@
         <v>'v129',</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
         <v>131</v>
       </c>
@@ -2445,7 +2447,7 @@
         <v>'v130',</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
         <v>132</v>
       </c>
@@ -2463,4 +2465,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769D8C94-4762-0744-86D0-26A26E09C2EE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data_dictionary.ver.0.1.xlsx
+++ b/data_dictionary.ver.0.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komai/20.kaggle/BNP_Paribas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F98AE3-5AA2-2B44-8219-E57FD426538E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DC2397-D046-044D-8F1F-B90AF0F1A37A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="1000" windowWidth="20080" windowHeight="14660" xr2:uid="{9B28D46B-80F1-A44B-8D59-E1D685F85FD1}"/>
+    <workbookView xWindow="10400" yWindow="1440" windowWidth="20080" windowHeight="14660" xr2:uid="{9B28D46B-80F1-A44B-8D59-E1D685F85FD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="141">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -472,6 +472,17 @@
     <rPh sb="0" eb="2">
       <t>スウチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニーク数</t>
+    <rPh sb="0" eb="1">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -843,13 +854,14 @@
   <dimension ref="B2:E135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
@@ -859,6 +871,9 @@
       <c r="C2" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="E2" t="s">
         <v>137</v>
       </c>
@@ -882,6 +897,9 @@
       <c r="C4" s="2" t="s">
         <v>136</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E4" t="str">
         <f t="shared" ref="E4:E67" si="0">"'"&amp;B4&amp;"'"&amp;","</f>
         <v>'target',</v>
@@ -894,6 +912,9 @@
       <c r="C5" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
         <v>'v1',</v>
@@ -906,6 +927,9 @@
       <c r="C6" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
         <v>'v2',</v>
@@ -918,6 +942,9 @@
       <c r="C7" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="D7" s="2">
+        <v>3</v>
+      </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>'v3',</v>
@@ -930,6 +957,9 @@
       <c r="C8" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>'v4',</v>
@@ -942,6 +972,9 @@
       <c r="C9" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>'v5',</v>
@@ -954,6 +987,9 @@
       <c r="C10" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>'v6',</v>
@@ -966,6 +1002,9 @@
       <c r="C11" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>'v7',</v>
@@ -978,6 +1017,9 @@
       <c r="C12" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>'v8',</v>
@@ -990,6 +1032,9 @@
       <c r="C13" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D13" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>'v9',</v>
@@ -1002,6 +1047,9 @@
       <c r="C14" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>'v10',</v>
@@ -1014,6 +1062,9 @@
       <c r="C15" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>'v11',</v>
@@ -1026,6 +1077,9 @@
       <c r="C16" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>'v12',</v>
@@ -1038,6 +1092,9 @@
       <c r="C17" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D17" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>'v13',</v>
@@ -1050,6 +1107,9 @@
       <c r="C18" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D18" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
         <v>'v14',</v>
@@ -1062,6 +1122,9 @@
       <c r="C19" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D19" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
         <v>'v15',</v>
@@ -1074,6 +1137,9 @@
       <c r="C20" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D20" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
         <v>'v16',</v>
@@ -1086,6 +1152,9 @@
       <c r="C21" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D21" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
         <v>'v17',</v>
@@ -1098,6 +1167,9 @@
       <c r="C22" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D22" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
         <v>'v18',</v>
@@ -1110,6 +1182,9 @@
       <c r="C23" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D23" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
         <v>'v19',</v>
@@ -1122,6 +1197,9 @@
       <c r="C24" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D24" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
         <v>'v20',</v>
@@ -1134,6 +1212,9 @@
       <c r="C25" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D25" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
         <v>'v21',</v>
@@ -1146,6 +1227,9 @@
       <c r="C26" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="D26" s="2">
+        <v>18210</v>
+      </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
         <v>'v22',</v>
@@ -1158,6 +1242,9 @@
       <c r="C27" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D27" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
         <v>'v23',</v>
@@ -1170,6 +1257,9 @@
       <c r="C28" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="D28" s="2">
+        <v>5</v>
+      </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
         <v>'v24',</v>
@@ -1182,6 +1272,9 @@
       <c r="C29" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D29" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
         <v>'v25',</v>
@@ -1194,6 +1287,9 @@
       <c r="C30" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
         <v>'v26',</v>
@@ -1206,6 +1302,9 @@
       <c r="C31" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D31" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
         <v>'v27',</v>
@@ -1218,6 +1317,9 @@
       <c r="C32" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D32" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
         <v>'v28',</v>
@@ -1230,6 +1332,9 @@
       <c r="C33" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D33" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
         <v>'v29',</v>
@@ -1242,6 +1347,9 @@
       <c r="C34" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="D34" s="2">
+        <v>7</v>
+      </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
         <v>'v30',</v>
@@ -1254,6 +1362,9 @@
       <c r="C35" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
         <v>'v31',</v>
@@ -1266,6 +1377,9 @@
       <c r="C36" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D36" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
         <v>'v32',</v>
@@ -1278,6 +1392,9 @@
       <c r="C37" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D37" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
         <v>'v33',</v>
@@ -1290,6 +1407,9 @@
       <c r="C38" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D38" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
         <v>'v34',</v>
@@ -1302,6 +1422,9 @@
       <c r="C39" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D39" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
         <v>'v35',</v>
@@ -1314,6 +1437,9 @@
       <c r="C40" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D40" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
         <v>'v36',</v>
@@ -1326,6 +1452,9 @@
       <c r="C41" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D41" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
         <v>'v37',</v>
@@ -1338,6 +1467,9 @@
       <c r="C42" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
         <v>'v38',</v>
@@ -1350,6 +1482,9 @@
       <c r="C43" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
         <v>'v39',</v>
@@ -1362,6 +1497,9 @@
       <c r="C44" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D44" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
         <v>'v40',</v>
@@ -1374,6 +1512,9 @@
       <c r="C45" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D45" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
         <v>'v41',</v>
@@ -1386,6 +1527,9 @@
       <c r="C46" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D46" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
         <v>'v42',</v>
@@ -1398,6 +1542,9 @@
       <c r="C47" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D47" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
         <v>'v43',</v>
@@ -1410,6 +1557,9 @@
       <c r="C48" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D48" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
         <v>'v44',</v>
@@ -1422,6 +1572,9 @@
       <c r="C49" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D49" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
         <v>'v45',</v>
@@ -1434,6 +1587,9 @@
       <c r="C50" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D50" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
         <v>'v46',</v>
@@ -1446,6 +1602,9 @@
       <c r="C51" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="D51" s="2">
+        <v>10</v>
+      </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
         <v>'v47',</v>
@@ -1458,6 +1617,9 @@
       <c r="C52" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D52" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
         <v>'v48',</v>
@@ -1470,6 +1632,9 @@
       <c r="C53" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
         <v>'v49',</v>
@@ -1482,6 +1647,9 @@
       <c r="C54" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D54" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
         <v>'v50',</v>
@@ -1494,6 +1662,9 @@
       <c r="C55" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
         <v>'v51',</v>
@@ -1506,6 +1677,9 @@
       <c r="C56" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="D56" s="2">
+        <v>12</v>
+      </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
         <v>'v52',</v>
@@ -1518,6 +1692,9 @@
       <c r="C57" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D57" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E57" t="str">
         <f t="shared" si="0"/>
         <v>'v53',</v>
@@ -1530,6 +1707,9 @@
       <c r="C58" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D58" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E58" t="str">
         <f t="shared" si="0"/>
         <v>'v54',</v>
@@ -1542,6 +1722,9 @@
       <c r="C59" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D59" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E59" t="str">
         <f t="shared" si="0"/>
         <v>'v55',</v>
@@ -1554,6 +1737,9 @@
       <c r="C60" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="D60" s="2">
+        <v>122</v>
+      </c>
       <c r="E60" t="str">
         <f t="shared" si="0"/>
         <v>'v56',</v>
@@ -1566,6 +1752,9 @@
       <c r="C61" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D61" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E61" t="str">
         <f t="shared" si="0"/>
         <v>'v57',</v>
@@ -1578,6 +1767,9 @@
       <c r="C62" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D62" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E62" t="str">
         <f t="shared" si="0"/>
         <v>'v58',</v>
@@ -1590,6 +1782,9 @@
       <c r="C63" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D63" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E63" t="str">
         <f t="shared" si="0"/>
         <v>'v59',</v>
@@ -1602,6 +1797,9 @@
       <c r="C64" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D64" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E64" t="str">
         <f t="shared" si="0"/>
         <v>'v60',</v>
@@ -1614,6 +1812,9 @@
       <c r="C65" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D65" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E65" t="str">
         <f t="shared" si="0"/>
         <v>'v61',</v>
@@ -1626,6 +1827,9 @@
       <c r="C66" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D66" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E66" t="str">
         <f t="shared" si="0"/>
         <v>'v62',</v>
@@ -1638,6 +1842,9 @@
       <c r="C67" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D67" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E67" t="str">
         <f t="shared" si="0"/>
         <v>'v63',</v>
@@ -1650,6 +1857,9 @@
       <c r="C68" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D68" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E68" t="str">
         <f t="shared" ref="E68:E131" si="1">"'"&amp;B68&amp;"'"&amp;","</f>
         <v>'v64',</v>
@@ -1662,6 +1872,9 @@
       <c r="C69" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D69" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E69" t="str">
         <f t="shared" si="1"/>
         <v>'v65',</v>
@@ -1674,6 +1887,9 @@
       <c r="C70" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="D70" s="2">
+        <v>3</v>
+      </c>
       <c r="E70" t="str">
         <f t="shared" si="1"/>
         <v>'v66',</v>
@@ -1686,6 +1902,9 @@
       <c r="C71" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D71" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E71" t="str">
         <f t="shared" si="1"/>
         <v>'v67',</v>
@@ -1698,6 +1917,9 @@
       <c r="C72" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D72" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E72" t="str">
         <f t="shared" si="1"/>
         <v>'v68',</v>
@@ -1710,6 +1932,9 @@
       <c r="C73" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D73" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E73" t="str">
         <f t="shared" si="1"/>
         <v>'v69',</v>
@@ -1722,6 +1947,9 @@
       <c r="C74" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D74" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E74" t="str">
         <f t="shared" si="1"/>
         <v>'v70',</v>
@@ -1734,6 +1962,9 @@
       <c r="C75" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="D75" s="2">
+        <v>9</v>
+      </c>
       <c r="E75" t="str">
         <f t="shared" si="1"/>
         <v>'v71',</v>
@@ -1746,6 +1977,9 @@
       <c r="C76" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D76" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E76" t="str">
         <f t="shared" si="1"/>
         <v>'v72',</v>
@@ -1758,6 +1992,9 @@
       <c r="C77" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D77" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E77" t="str">
         <f t="shared" si="1"/>
         <v>'v73',</v>
@@ -1770,6 +2007,9 @@
       <c r="C78" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="D78" s="2">
+        <v>3</v>
+      </c>
       <c r="E78" t="str">
         <f t="shared" si="1"/>
         <v>'v74',</v>
@@ -1782,6 +2022,9 @@
       <c r="C79" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="D79" s="2">
+        <v>4</v>
+      </c>
       <c r="E79" t="str">
         <f t="shared" si="1"/>
         <v>'v75',</v>
@@ -1794,6 +2037,9 @@
       <c r="C80" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D80" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E80" t="str">
         <f t="shared" si="1"/>
         <v>'v76',</v>
@@ -1806,6 +2052,9 @@
       <c r="C81" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D81" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E81" t="str">
         <f t="shared" si="1"/>
         <v>'v77',</v>
@@ -1818,6 +2067,9 @@
       <c r="C82" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D82" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E82" t="str">
         <f t="shared" si="1"/>
         <v>'v78',</v>
@@ -1830,6 +2082,9 @@
       <c r="C83" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="D83" s="2">
+        <v>18</v>
+      </c>
       <c r="E83" t="str">
         <f t="shared" si="1"/>
         <v>'v79',</v>
@@ -1842,6 +2097,9 @@
       <c r="C84" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D84" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E84" t="str">
         <f t="shared" si="1"/>
         <v>'v80',</v>
@@ -1854,6 +2112,9 @@
       <c r="C85" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D85" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E85" t="str">
         <f t="shared" si="1"/>
         <v>'v81',</v>
@@ -1866,6 +2127,9 @@
       <c r="C86" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D86" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E86" t="str">
         <f t="shared" si="1"/>
         <v>'v82',</v>
@@ -1878,6 +2142,9 @@
       <c r="C87" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D87" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E87" t="str">
         <f t="shared" si="1"/>
         <v>'v83',</v>
@@ -1890,6 +2157,9 @@
       <c r="C88" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D88" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E88" t="str">
         <f t="shared" si="1"/>
         <v>'v84',</v>
@@ -1902,6 +2172,9 @@
       <c r="C89" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D89" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E89" t="str">
         <f t="shared" si="1"/>
         <v>'v85',</v>
@@ -1914,6 +2187,9 @@
       <c r="C90" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D90" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E90" t="str">
         <f t="shared" si="1"/>
         <v>'v86',</v>
@@ -1926,6 +2202,9 @@
       <c r="C91" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D91" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E91" t="str">
         <f t="shared" si="1"/>
         <v>'v87',</v>
@@ -1938,6 +2217,9 @@
       <c r="C92" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D92" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E92" t="str">
         <f t="shared" si="1"/>
         <v>'v88',</v>
@@ -1950,6 +2232,9 @@
       <c r="C93" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D93" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E93" t="str">
         <f t="shared" si="1"/>
         <v>'v89',</v>
@@ -1962,6 +2247,9 @@
       <c r="C94" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D94" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E94" t="str">
         <f t="shared" si="1"/>
         <v>'v90',</v>
@@ -1974,6 +2262,9 @@
       <c r="C95" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="D95" s="2">
+        <v>7</v>
+      </c>
       <c r="E95" t="str">
         <f t="shared" si="1"/>
         <v>'v91',</v>
@@ -1986,6 +2277,9 @@
       <c r="C96" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D96" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E96" t="str">
         <f t="shared" si="1"/>
         <v>'v92',</v>
@@ -1998,6 +2292,9 @@
       <c r="C97" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D97" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E97" t="str">
         <f t="shared" si="1"/>
         <v>'v93',</v>
@@ -2010,6 +2307,9 @@
       <c r="C98" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D98" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E98" t="str">
         <f t="shared" si="1"/>
         <v>'v94',</v>
@@ -2022,6 +2322,9 @@
       <c r="C99" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D99" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E99" t="str">
         <f t="shared" si="1"/>
         <v>'v95',</v>
@@ -2034,6 +2337,9 @@
       <c r="C100" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D100" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E100" t="str">
         <f t="shared" si="1"/>
         <v>'v96',</v>
@@ -2046,6 +2352,9 @@
       <c r="C101" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D101" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E101" t="str">
         <f t="shared" si="1"/>
         <v>'v97',</v>
@@ -2058,6 +2367,9 @@
       <c r="C102" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D102" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E102" t="str">
         <f t="shared" si="1"/>
         <v>'v98',</v>
@@ -2070,6 +2382,9 @@
       <c r="C103" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D103" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E103" t="str">
         <f t="shared" si="1"/>
         <v>'v99',</v>
@@ -2082,6 +2397,9 @@
       <c r="C104" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D104" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E104" t="str">
         <f t="shared" si="1"/>
         <v>'v100',</v>
@@ -2094,6 +2412,9 @@
       <c r="C105" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D105" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E105" t="str">
         <f t="shared" si="1"/>
         <v>'v101',</v>
@@ -2106,6 +2427,9 @@
       <c r="C106" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D106" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E106" t="str">
         <f t="shared" si="1"/>
         <v>'v102',</v>
@@ -2118,6 +2442,9 @@
       <c r="C107" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D107" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E107" t="str">
         <f t="shared" si="1"/>
         <v>'v103',</v>
@@ -2130,6 +2457,9 @@
       <c r="C108" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D108" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E108" t="str">
         <f t="shared" si="1"/>
         <v>'v104',</v>
@@ -2142,6 +2472,9 @@
       <c r="C109" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D109" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E109" t="str">
         <f t="shared" si="1"/>
         <v>'v105',</v>
@@ -2154,6 +2487,9 @@
       <c r="C110" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D110" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E110" t="str">
         <f t="shared" si="1"/>
         <v>'v106',</v>
@@ -2166,6 +2502,9 @@
       <c r="C111" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="D111" s="2">
+        <v>7</v>
+      </c>
       <c r="E111" t="str">
         <f t="shared" si="1"/>
         <v>'v107',</v>
@@ -2178,6 +2517,9 @@
       <c r="C112" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D112" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E112" t="str">
         <f t="shared" si="1"/>
         <v>'v108',</v>
@@ -2190,6 +2532,9 @@
       <c r="C113" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D113" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E113" t="str">
         <f t="shared" si="1"/>
         <v>'v109',</v>
@@ -2202,6 +2547,9 @@
       <c r="C114" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="D114" s="2">
+        <v>3</v>
+      </c>
       <c r="E114" t="str">
         <f t="shared" si="1"/>
         <v>'v110',</v>
@@ -2214,6 +2562,9 @@
       <c r="C115" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D115" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E115" t="str">
         <f t="shared" si="1"/>
         <v>'v111',</v>
@@ -2226,6 +2577,9 @@
       <c r="C116" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="D116" s="2">
+        <v>22</v>
+      </c>
       <c r="E116" t="str">
         <f t="shared" si="1"/>
         <v>'v112',</v>
@@ -2238,6 +2592,9 @@
       <c r="C117" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="D117" s="2">
+        <v>36</v>
+      </c>
       <c r="E117" t="str">
         <f t="shared" si="1"/>
         <v>'v113',</v>
@@ -2250,6 +2607,9 @@
       <c r="C118" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D118" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E118" t="str">
         <f t="shared" si="1"/>
         <v>'v114',</v>
@@ -2262,6 +2622,9 @@
       <c r="C119" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D119" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E119" t="str">
         <f t="shared" si="1"/>
         <v>'v115',</v>
@@ -2274,6 +2637,9 @@
       <c r="C120" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D120" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E120" t="str">
         <f t="shared" si="1"/>
         <v>'v116',</v>
@@ -2286,6 +2652,9 @@
       <c r="C121" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D121" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E121" t="str">
         <f t="shared" si="1"/>
         <v>'v117',</v>
@@ -2298,6 +2667,9 @@
       <c r="C122" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D122" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E122" t="str">
         <f t="shared" si="1"/>
         <v>'v118',</v>
@@ -2310,6 +2682,9 @@
       <c r="C123" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D123" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E123" t="str">
         <f t="shared" si="1"/>
         <v>'v119',</v>
@@ -2322,6 +2697,9 @@
       <c r="C124" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D124" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E124" t="str">
         <f t="shared" si="1"/>
         <v>'v120',</v>
@@ -2334,6 +2712,9 @@
       <c r="C125" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D125" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E125" t="str">
         <f t="shared" si="1"/>
         <v>'v121',</v>
@@ -2346,6 +2727,9 @@
       <c r="C126" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D126" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E126" t="str">
         <f t="shared" si="1"/>
         <v>'v122',</v>
@@ -2358,6 +2742,9 @@
       <c r="C127" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D127" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E127" t="str">
         <f t="shared" si="1"/>
         <v>'v123',</v>
@@ -2370,6 +2757,9 @@
       <c r="C128" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D128" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E128" t="str">
         <f t="shared" si="1"/>
         <v>'v124',</v>
@@ -2382,6 +2772,9 @@
       <c r="C129" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="D129" s="2">
+        <v>90</v>
+      </c>
       <c r="E129" t="str">
         <f t="shared" si="1"/>
         <v>'v125',</v>
@@ -2394,6 +2787,9 @@
       <c r="C130" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D130" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E130" t="str">
         <f t="shared" si="1"/>
         <v>'v126',</v>
@@ -2406,6 +2802,9 @@
       <c r="C131" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D131" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E131" t="str">
         <f t="shared" si="1"/>
         <v>'v127',</v>
@@ -2418,6 +2817,9 @@
       <c r="C132" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D132" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E132" t="str">
         <f t="shared" ref="E132:E135" si="2">"'"&amp;B132&amp;"'"&amp;","</f>
         <v>'v128',</v>
@@ -2430,6 +2832,9 @@
       <c r="C133" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D133" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E133" t="str">
         <f t="shared" si="2"/>
         <v>'v129',</v>
@@ -2442,6 +2847,9 @@
       <c r="C134" s="2" t="s">
         <v>138</v>
       </c>
+      <c r="D134" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="E134" t="str">
         <f t="shared" si="2"/>
         <v>'v130',</v>
@@ -2453,6 +2861,9 @@
       </c>
       <c r="C135" s="2" t="s">
         <v>138</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="2"/>

--- a/data_dictionary.ver.0.1.xlsx
+++ b/data_dictionary.ver.0.1.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komai/20.kaggle/BNP_Paribas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0DC2397-D046-044D-8F1F-B90AF0F1A37A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9412FB8-3192-324E-AC1C-8736CB541ED5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10400" yWindow="1440" windowWidth="20080" windowHeight="14660" xr2:uid="{9B28D46B-80F1-A44B-8D59-E1D685F85FD1}"/>
+    <workbookView xWindow="3920" yWindow="440" windowWidth="20080" windowHeight="14660" xr2:uid="{9B28D46B-80F1-A44B-8D59-E1D685F85FD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$E$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$E$2</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -855,7 +855,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2871,7 +2871,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E135" xr:uid="{437F46B9-987C-8841-AC89-0941F3335084}"/>
+  <autoFilter ref="B2:E2" xr:uid="{44E52751-63FE-554D-A186-B38B26D24F49}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/data_dictionary.ver.0.1.xlsx
+++ b/data_dictionary.ver.0.1.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komai/20.kaggle/BNP_Paribas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9412FB8-3192-324E-AC1C-8736CB541ED5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336C00E8-84F3-3249-A75B-EE27916E622A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="440" windowWidth="20080" windowHeight="14660" xr2:uid="{9B28D46B-80F1-A44B-8D59-E1D685F85FD1}"/>
+    <workbookView xWindow="3920" yWindow="440" windowWidth="20080" windowHeight="14660" activeTab="1" xr2:uid="{9B28D46B-80F1-A44B-8D59-E1D685F85FD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="model" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$E$2</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="150">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -483,6 +483,54 @@
   </si>
   <si>
     <t>ー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>picke</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model.pickle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精度</t>
+    <rPh sb="0" eb="2">
+      <t>セイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル仕様</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用変数</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one-hot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -527,7 +575,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -536,6 +584,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -853,9 +904,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A10A60-6D37-8D4C-B828-A3002138E66F}">
   <dimension ref="B2:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2880,14 +2931,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769D8C94-4762-0744-86D0-26A26E09C2EE}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data_dictionary.ver.0.1.xlsx
+++ b/data_dictionary.ver.0.1.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komai/20.kaggle/BNP_Paribas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336C00E8-84F3-3249-A75B-EE27916E622A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD5DAC5B-5658-FA4C-B183-3F6ACA3B2FD2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="440" windowWidth="20080" windowHeight="14660" activeTab="1" xr2:uid="{9B28D46B-80F1-A44B-8D59-E1D685F85FD1}"/>
+    <workbookView xWindow="3280" yWindow="440" windowWidth="22420" windowHeight="14660" activeTab="1" xr2:uid="{9B28D46B-80F1-A44B-8D59-E1D685F85FD1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="変数" sheetId="1" r:id="rId1"/>
     <sheet name="model" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">変数!$B$2:$E$2</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="155">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -512,25 +512,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>利用変数</t>
+    <t>one-hot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AUC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変数除外</t>
     <rPh sb="0" eb="2">
-      <t>リヨウ</t>
+      <t>ヘンスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全部</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンブ</t>
+    <t>v22</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>●</t>
+    <rPh sb="0" eb="1">
+      <t>●</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>one-hot</t>
+    <t>model2.pickle</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-</t>
+    <t>fmap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LogLoss_valid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xgb2.fmap</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -538,7 +558,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -548,6 +571,13 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="Osaka"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Osaka"/>
       <family val="2"/>
       <charset val="128"/>
@@ -570,12 +600,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -585,11 +618,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -905,8 +945,8 @@
   <dimension ref="B2:E135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1278,7 +1318,7 @@
       <c r="C26" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="3">
         <v>18210</v>
       </c>
       <c r="E26" t="str">
@@ -2931,53 +2971,116 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769D8C94-4762-0744-86D0-26A26E09C2EE}">
-  <dimension ref="B2:F4"/>
+  <dimension ref="B2:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="8" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>144</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>141</v>
       </c>
       <c r="C3" t="s">
         <v>142</v>
       </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
       <c r="E3" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4">
+        <f>ROW()-3</f>
         <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f t="shared" ref="B5:B9" si="0">ROW()-3</f>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.76</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.46538073441655498</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>149</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data_dictionary.ver.0.1.xlsx
+++ b/data_dictionary.ver.0.1.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/komai/20.kaggle/BNP_Paribas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kazunori.komai\github\BNP_Paribas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD5DAC5B-5658-FA4C-B183-3F6ACA3B2FD2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="440" windowWidth="22420" windowHeight="14660" activeTab="1" xr2:uid="{9B28D46B-80F1-A44B-8D59-E1D685F85FD1}"/>
+    <workbookView xWindow="3285" yWindow="435" windowWidth="22425" windowHeight="14655" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="変数" sheetId="1" r:id="rId1"/>
-    <sheet name="model" sheetId="2" r:id="rId2"/>
+    <sheet name="学習データ" sheetId="1" r:id="rId1"/>
+    <sheet name="モデルバージョニング" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">変数!$B$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">学習データ!$B$2:$E$2</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="167">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -498,13 +497,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>精度</t>
-    <rPh sb="0" eb="2">
-      <t>セイド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>モデル仕様</t>
     <rPh sb="0" eb="2">
       <t>シヨウ</t>
@@ -546,22 +538,81 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>LogLoss_valid</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>xgb2.fmap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model2.1.pickle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xgb2.1.fmap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LogLoss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ver.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dummy_na</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>summary</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>とりあえずXGB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>one-hot</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NULLも含めてone-hot</t>
+    <rPh sb="5" eb="6">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精度（valid-data）</t>
+    <rPh sb="0" eb="2">
+      <t>セイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Score</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.000"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="178" formatCode="0.0"/>
+    <numFmt numFmtId="183" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -582,21 +633,126 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -608,23 +764,59 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -941,2028 +1133,2032 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9A10A60-6D37-8D4C-B828-A3002138E66F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="17.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="2"/>
+    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B2" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="11" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" t="str">
+      <c r="D3" s="3"/>
+      <c r="E3" s="2" t="str">
         <f>"'"&amp;B3&amp;"'"&amp;","</f>
         <v>'ID',</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" t="str">
+      <c r="D4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="2" t="str">
         <f t="shared" ref="E4:E67" si="0">"'"&amp;B4&amp;"'"&amp;","</f>
         <v>'target',</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" t="str">
+      <c r="C5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v1',</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" t="str">
+      <c r="C6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v2',</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" t="str">
+      <c r="E7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v3',</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E8" t="str">
+      <c r="C8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v4',</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" t="str">
+      <c r="C9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v5',</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E10" t="str">
+      <c r="C10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v6',</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E11" t="str">
+      <c r="C11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v7',</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+    <row r="12" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" t="str">
+      <c r="C12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E12" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v8',</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" t="str">
+      <c r="C13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v9',</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" t="str">
+      <c r="C14" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v10',</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" t="str">
+      <c r="C15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v11',</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    <row r="16" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" t="str">
+      <c r="C16" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v12',</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+    <row r="17" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B17" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" t="str">
+      <c r="C17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v13',</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+    <row r="18" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B18" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" t="str">
+      <c r="C18" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E18" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v14',</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E19" t="str">
+      <c r="C19" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v15',</v>
       </c>
     </row>
-    <row r="20" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" t="str">
+      <c r="C20" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v16',</v>
       </c>
     </row>
-    <row r="21" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" t="str">
+      <c r="C21" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v17',</v>
       </c>
     </row>
-    <row r="22" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+    <row r="22" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B22" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E22" t="str">
+      <c r="C22" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v18',</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E23" t="str">
+      <c r="C23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v19',</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="24" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E24" t="str">
+      <c r="C24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v20',</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="25" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" t="str">
+      <c r="C25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v21',</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="26" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="14">
         <v>18210</v>
       </c>
-      <c r="E26" t="str">
+      <c r="E26" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v22',</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" t="str">
+      <c r="C27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v23',</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="28" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28" s="3">
         <v>5</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E28" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v24',</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+    <row r="29" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E29" t="str">
+      <c r="C29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v25',</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+    <row r="30" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E30" t="str">
+      <c r="C30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E30" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v26',</v>
       </c>
     </row>
-    <row r="31" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+    <row r="31" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E31" t="str">
+      <c r="C31" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v27',</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
+    <row r="32" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" t="str">
+      <c r="C32" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v28',</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+    <row r="33" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E33" t="str">
+      <c r="C33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v29',</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+    <row r="34" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D34" s="2">
+      <c r="D34" s="3">
         <v>7</v>
       </c>
-      <c r="E34" t="str">
+      <c r="E34" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v30',</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="35" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="3">
         <v>3</v>
       </c>
-      <c r="E35" t="str">
+      <c r="E35" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v31',</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+    <row r="36" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E36" t="str">
+      <c r="C36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v32',</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+    <row r="37" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" t="str">
+      <c r="C37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E37" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v33',</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="38" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E38" t="str">
+      <c r="C38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E38" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v34',</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    <row r="39" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E39" t="str">
+      <c r="C39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v35',</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+    <row r="40" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E40" t="str">
+      <c r="C40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v36',</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="41" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E41" t="str">
+      <c r="C41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v37',</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
+    <row r="42" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E42" t="str">
+      <c r="C42" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v38',</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
+    <row r="43" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B43" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E43" t="str">
+      <c r="C43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v39',</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
+    <row r="44" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E44" t="str">
+      <c r="C44" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v40',</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    <row r="45" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B45" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E45" t="str">
+      <c r="C45" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v41',</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
+    <row r="46" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E46" t="str">
+      <c r="C46" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v42',</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
+    <row r="47" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B47" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E47" t="str">
+      <c r="C47" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v43',</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
+    <row r="48" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B48" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E48" t="str">
+      <c r="C48" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v44',</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+    <row r="49" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B49" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E49" t="str">
+      <c r="C49" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v45',</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+    <row r="50" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B50" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E50" t="str">
+      <c r="C50" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E50" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v46',</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="3">
         <v>10</v>
       </c>
-      <c r="E51" t="str">
+      <c r="E51" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v47',</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="52" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B52" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E52" t="str">
+      <c r="C52" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E52" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v48',</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
+    <row r="53" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B53" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E53" t="str">
+      <c r="C53" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E53" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v49',</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
+    <row r="54" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B54" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E54" t="str">
+      <c r="C54" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v50',</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+    <row r="55" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B55" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E55" t="str">
+      <c r="C55" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v51',</v>
       </c>
     </row>
-    <row r="56" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+    <row r="56" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B56" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="3">
         <v>12</v>
       </c>
-      <c r="E56" t="str">
+      <c r="E56" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v52',</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+    <row r="57" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B57" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E57" t="str">
+      <c r="C57" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v53',</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
+    <row r="58" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B58" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E58" t="str">
+      <c r="C58" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v54',</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="59" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B59" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E59" t="str">
+      <c r="C59" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v55',</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
+    <row r="60" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B60" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D60" s="2">
+      <c r="D60" s="3">
         <v>122</v>
       </c>
-      <c r="E60" t="str">
+      <c r="E60" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v56',</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
+    <row r="61" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B61" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E61" t="str">
+      <c r="C61" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E61" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v57',</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
+    <row r="62" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B62" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E62" t="str">
+      <c r="C62" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E62" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v58',</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
+    <row r="63" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B63" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E63" t="str">
+      <c r="C63" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v59',</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
+    <row r="64" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B64" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E64" t="str">
+      <c r="C64" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v60',</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="65" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B65" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E65" t="str">
+      <c r="C65" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E65" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v61',</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="66" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B66" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E66" t="str">
+      <c r="C66" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E66" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v62',</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
+    <row r="67" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B67" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E67" t="str">
+      <c r="C67" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E67" s="2" t="str">
         <f t="shared" si="0"/>
         <v>'v63',</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
+    <row r="68" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B68" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E68" t="str">
+      <c r="C68" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E68" s="2" t="str">
         <f t="shared" ref="E68:E131" si="1">"'"&amp;B68&amp;"'"&amp;","</f>
         <v>'v64',</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
+    <row r="69" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B69" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E69" t="str">
+      <c r="C69" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v65',</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="70" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B70" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="3">
         <v>3</v>
       </c>
-      <c r="E70" t="str">
+      <c r="E70" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v66',</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="71" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B71" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E71" t="str">
+      <c r="C71" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E71" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v67',</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+    <row r="72" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B72" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E72" t="str">
+      <c r="C72" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E72" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v68',</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
+    <row r="73" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B73" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E73" t="str">
+      <c r="C73" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E73" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v69',</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="74" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B74" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E74" t="str">
+      <c r="C74" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E74" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v70',</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="75" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B75" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D75" s="3">
         <v>9</v>
       </c>
-      <c r="E75" t="str">
+      <c r="E75" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v71',</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="76" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B76" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C76" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E76" t="str">
+      <c r="C76" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E76" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v72',</v>
       </c>
     </row>
-    <row r="77" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
+    <row r="77" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B77" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E77" t="str">
+      <c r="C77" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E77" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v73',</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
+    <row r="78" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B78" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D78" s="3">
         <v>3</v>
       </c>
-      <c r="E78" t="str">
+      <c r="E78" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v74',</v>
       </c>
     </row>
-    <row r="79" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+    <row r="79" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B79" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D79" s="3">
         <v>4</v>
       </c>
-      <c r="E79" t="str">
+      <c r="E79" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v75',</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="80" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B80" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E80" t="str">
+      <c r="C80" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E80" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v76',</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="81" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B81" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E81" t="str">
+      <c r="C81" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E81" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v77',</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    <row r="82" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B82" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E82" t="str">
+      <c r="C82" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E82" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v78',</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="83" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B83" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D83" s="3">
         <v>18</v>
       </c>
-      <c r="E83" t="str">
+      <c r="E83" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v79',</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+    <row r="84" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B84" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E84" t="str">
+      <c r="C84" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E84" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v80',</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" t="s">
+    <row r="85" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B85" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E85" t="str">
+      <c r="C85" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E85" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v81',</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" t="s">
+    <row r="86" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B86" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E86" t="str">
+      <c r="C86" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E86" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v82',</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
+    <row r="87" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B87" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E87" t="str">
+      <c r="C87" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E87" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v83',</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+    <row r="88" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B88" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E88" t="str">
+      <c r="C88" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v84',</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" t="s">
+    <row r="89" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B89" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E89" t="str">
+      <c r="C89" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E89" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v85',</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" t="s">
+    <row r="90" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B90" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E90" t="str">
+      <c r="C90" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E90" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v86',</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" t="s">
+    <row r="91" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B91" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E91" t="str">
+      <c r="C91" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E91" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v87',</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" t="s">
+    <row r="92" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B92" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E92" t="str">
+      <c r="C92" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E92" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v88',</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="93" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B93" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E93" t="str">
+      <c r="C93" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E93" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v89',</v>
       </c>
     </row>
-    <row r="94" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" t="s">
+    <row r="94" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B94" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E94" t="str">
+      <c r="C94" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E94" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v90',</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" t="s">
+    <row r="95" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B95" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D95" s="3">
         <v>7</v>
       </c>
-      <c r="E95" t="str">
+      <c r="E95" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v91',</v>
       </c>
     </row>
-    <row r="96" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
+    <row r="96" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B96" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E96" t="str">
+      <c r="C96" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E96" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v92',</v>
       </c>
     </row>
-    <row r="97" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
+    <row r="97" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B97" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E97" t="str">
+      <c r="C97" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E97" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v93',</v>
       </c>
     </row>
-    <row r="98" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
+    <row r="98" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B98" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E98" t="str">
+      <c r="C98" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E98" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v94',</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
+    <row r="99" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B99" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E99" t="str">
+      <c r="C99" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E99" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v95',</v>
       </c>
     </row>
-    <row r="100" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
+    <row r="100" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B100" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E100" t="str">
+      <c r="C100" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E100" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v96',</v>
       </c>
     </row>
-    <row r="101" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
+    <row r="101" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B101" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E101" t="str">
+      <c r="C101" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E101" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v97',</v>
       </c>
     </row>
-    <row r="102" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
+    <row r="102" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B102" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E102" t="str">
+      <c r="C102" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E102" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v98',</v>
       </c>
     </row>
-    <row r="103" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
+    <row r="103" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B103" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E103" t="str">
+      <c r="C103" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E103" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v99',</v>
       </c>
     </row>
-    <row r="104" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
+    <row r="104" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B104" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E104" t="str">
+      <c r="C104" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E104" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v100',</v>
       </c>
     </row>
-    <row r="105" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+    <row r="105" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B105" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E105" t="str">
+      <c r="C105" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E105" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v101',</v>
       </c>
     </row>
-    <row r="106" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
+    <row r="106" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B106" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E106" t="str">
+      <c r="C106" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E106" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v102',</v>
       </c>
     </row>
-    <row r="107" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
+    <row r="107" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B107" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C107" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E107" t="str">
+      <c r="C107" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E107" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v103',</v>
       </c>
     </row>
-    <row r="108" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+    <row r="108" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B108" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E108" t="str">
+      <c r="C108" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E108" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v104',</v>
       </c>
     </row>
-    <row r="109" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
+    <row r="109" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B109" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C109" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E109" t="str">
+      <c r="C109" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E109" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v105',</v>
       </c>
     </row>
-    <row r="110" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
+    <row r="110" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B110" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E110" t="str">
+      <c r="C110" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E110" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v106',</v>
       </c>
     </row>
-    <row r="111" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
+    <row r="111" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B111" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D111" s="2">
+      <c r="D111" s="3">
         <v>7</v>
       </c>
-      <c r="E111" t="str">
+      <c r="E111" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v107',</v>
       </c>
     </row>
-    <row r="112" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
+    <row r="112" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B112" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C112" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E112" t="str">
+      <c r="C112" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E112" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v108',</v>
       </c>
     </row>
-    <row r="113" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+    <row r="113" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B113" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E113" t="str">
+      <c r="C113" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E113" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v109',</v>
       </c>
     </row>
-    <row r="114" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" t="s">
+    <row r="114" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B114" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="3">
         <v>3</v>
       </c>
-      <c r="E114" t="str">
+      <c r="E114" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v110',</v>
       </c>
     </row>
-    <row r="115" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+    <row r="115" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B115" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E115" t="str">
+      <c r="C115" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E115" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v111',</v>
       </c>
     </row>
-    <row r="116" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
+    <row r="116" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B116" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="3">
         <v>22</v>
       </c>
-      <c r="E116" t="str">
+      <c r="E116" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v112',</v>
       </c>
     </row>
-    <row r="117" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
+    <row r="117" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B117" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="3">
         <v>36</v>
       </c>
-      <c r="E117" t="str">
+      <c r="E117" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v113',</v>
       </c>
     </row>
-    <row r="118" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
+    <row r="118" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B118" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E118" t="str">
+      <c r="C118" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E118" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v114',</v>
       </c>
     </row>
-    <row r="119" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
+    <row r="119" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B119" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E119" t="str">
+      <c r="C119" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E119" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v115',</v>
       </c>
     </row>
-    <row r="120" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
+    <row r="120" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B120" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E120" t="str">
+      <c r="C120" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E120" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v116',</v>
       </c>
     </row>
-    <row r="121" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
+    <row r="121" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B121" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E121" t="str">
+      <c r="C121" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E121" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v117',</v>
       </c>
     </row>
-    <row r="122" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
+    <row r="122" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B122" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C122" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E122" t="str">
+      <c r="C122" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E122" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v118',</v>
       </c>
     </row>
-    <row r="123" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
+    <row r="123" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B123" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E123" t="str">
+      <c r="C123" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E123" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v119',</v>
       </c>
     </row>
-    <row r="124" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
+    <row r="124" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B124" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E124" t="str">
+      <c r="C124" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E124" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v120',</v>
       </c>
     </row>
-    <row r="125" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
+    <row r="125" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B125" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C125" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E125" t="str">
+      <c r="C125" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E125" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v121',</v>
       </c>
     </row>
-    <row r="126" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
+    <row r="126" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B126" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E126" t="str">
+      <c r="C126" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E126" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v122',</v>
       </c>
     </row>
-    <row r="127" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
+    <row r="127" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B127" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C127" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E127" t="str">
+      <c r="C127" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E127" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v123',</v>
       </c>
     </row>
-    <row r="128" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
+    <row r="128" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B128" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E128" t="str">
+      <c r="C128" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E128" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v124',</v>
       </c>
     </row>
-    <row r="129" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
+    <row r="129" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B129" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D129" s="2">
+      <c r="D129" s="3">
         <v>90</v>
       </c>
-      <c r="E129" t="str">
+      <c r="E129" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v125',</v>
       </c>
     </row>
-    <row r="130" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
+    <row r="130" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B130" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E130" t="str">
+      <c r="C130" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E130" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v126',</v>
       </c>
     </row>
-    <row r="131" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
+    <row r="131" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B131" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E131" t="str">
+      <c r="C131" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E131" s="2" t="str">
         <f t="shared" si="1"/>
         <v>'v127',</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
+    <row r="132" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B132" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E132" t="str">
+      <c r="C132" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E132" s="2" t="str">
         <f t="shared" ref="E132:E135" si="2">"'"&amp;B132&amp;"'"&amp;","</f>
         <v>'v128',</v>
       </c>
     </row>
-    <row r="133" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
+    <row r="133" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B133" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E133" t="str">
+      <c r="C133" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E133" s="2" t="str">
         <f t="shared" si="2"/>
         <v>'v129',</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
+    <row r="134" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B134" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E134" t="str">
+      <c r="C134" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E134" s="2" t="str">
         <f t="shared" si="2"/>
         <v>'v130',</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="17" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
+    <row r="135" spans="2:5" ht="17.100000000000001" customHeight="1">
+      <c r="B135" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E135" t="str">
+      <c r="C135" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E135" s="2" t="str">
         <f t="shared" si="2"/>
         <v>'v131',</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E2" xr:uid="{44E52751-63FE-554D-A186-B38B26D24F49}"/>
+  <autoFilter ref="B2:E2"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2970,121 +3166,232 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{769D8C94-4762-0744-86D0-26A26E09C2EE}">
-  <dimension ref="B2:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="8" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="1" customWidth="1"/>
+    <col min="5" max="6" width="17" style="1" customWidth="1"/>
+    <col min="7" max="9" width="11.28515625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="15.5703125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+    <row r="2" spans="2:12" ht="20.25" customHeight="1">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F2" t="s">
+      <c r="K2" s="8"/>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="2:12" ht="20.25" customHeight="1">
+      <c r="B3" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K3" s="16" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="L3" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="20.25" customHeight="1">
+      <c r="B4" s="2">
         <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="4">
+      <c r="F4" s="4"/>
+      <c r="G4" s="3">
         <v>0.76</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="20.25" customHeight="1">
+      <c r="B5" s="2">
         <f t="shared" ref="B5:B9" si="0">ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="C5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="3">
         <v>0.76</v>
       </c>
-      <c r="E5" s="5">
+      <c r="H5" s="17">
         <v>0.46538073441655498</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="I5" s="17">
+        <v>0.46750000000000003</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="L5" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.25" customHeight="1">
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2.1</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="G6" s="3">
+        <v>0.75849999999999995</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.464980017028855</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0.46783000000000002</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="20.25" customHeight="1">
+      <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="C7" s="5"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.25" customHeight="1">
+      <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9">
+      <c r="C8" s="5"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.25" customHeight="1">
+      <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>